--- a/Datos/JASP_Datos_r3.xlsx
+++ b/Datos/JASP_Datos_r3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio25_2\Desktop\Jaime_Lab25\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,24 +615,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF38F064"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF55E5E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -662,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -719,12 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1017,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="BG29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CJ34" sqref="CJ34:CJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,9 +1013,9 @@
     <col min="13" max="13" width="6.28515625" style="39" customWidth="1"/>
     <col min="14" max="17" width="6.28515625" style="36" customWidth="1"/>
     <col min="18" max="21" width="6.28515625" style="43" customWidth="1"/>
-    <col min="22" max="25" width="6.28515625" style="59" customWidth="1"/>
+    <col min="22" max="25" width="6.28515625" style="56" customWidth="1"/>
     <col min="26" max="29" width="6.28515625" style="39" customWidth="1"/>
-    <col min="30" max="33" width="6.28515625" style="61" customWidth="1"/>
+    <col min="30" max="33" width="6.28515625" style="58" customWidth="1"/>
     <col min="34" max="37" width="6.28515625" style="31" customWidth="1"/>
     <col min="38" max="38" width="6.42578125" style="29" customWidth="1"/>
     <col min="39" max="39" width="6.5703125" style="29" customWidth="1"/>
@@ -1148,16 +1127,16 @@
       <c r="AC1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="60" t="s">
+      <c r="AD1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="60" t="s">
+      <c r="AE1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="60" t="s">
+      <c r="AF1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="57" t="s">
         <v>73</v>
       </c>
       <c r="AH1" s="50" t="s">
@@ -1202,28 +1181,28 @@
       <c r="AU1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="63" t="s">
+      <c r="AV1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="63" t="s">
+      <c r="AW1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="63" t="s">
+      <c r="AX1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="63" t="s">
+      <c r="AY1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="62" t="s">
+      <c r="AZ1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="62" t="s">
+      <c r="BA1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="62" t="s">
+      <c r="BB1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="62" t="s">
+      <c r="BC1" s="59" t="s">
         <v>81</v>
       </c>
       <c r="BD1" s="48" t="s">
@@ -1280,28 +1259,28 @@
       <c r="BU1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="BV1" s="64" t="s">
+      <c r="BV1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="BW1" s="64" t="s">
+      <c r="BW1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="BX1" s="64" t="s">
+      <c r="BX1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="BY1" s="64" t="s">
+      <c r="BY1" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="65" t="s">
+      <c r="BZ1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="CA1" s="65" t="s">
+      <c r="CA1" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="CB1" s="65" t="s">
+      <c r="CB1" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="CC1" s="65" t="s">
+      <c r="CC1" s="62" t="s">
         <v>93</v>
       </c>
       <c r="CD1" s="49" t="s">
@@ -1456,29 +1435,29 @@
         <f t="shared" si="5"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="AD2" s="60">
+      <c r="AD2" s="57">
         <f>ABS(V2)</f>
         <v>1.0465116279069766</v>
       </c>
-      <c r="AE2" s="60">
+      <c r="AE2" s="57">
         <f t="shared" ref="AE2:AG2" si="6">ABS(W2)</f>
         <v>1.1627906976744187</v>
       </c>
-      <c r="AF2" s="60">
+      <c r="AF2" s="57">
         <f t="shared" si="6"/>
         <v>0.69767441860465107</v>
       </c>
-      <c r="AG2" s="60">
+      <c r="AG2" s="57">
         <f t="shared" si="6"/>
         <v>0.93023255813953487</v>
       </c>
       <c r="AH2" s="51">
         <v>0</v>
       </c>
-      <c r="AI2" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="57">
+      <c r="AI2" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="51">
         <v>1</v>
       </c>
       <c r="AK2" s="51">
@@ -1573,10 +1552,10 @@
       <c r="BH2" s="16">
         <v>0</v>
       </c>
-      <c r="BI2" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="56">
+      <c r="BI2" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="16">
         <v>0</v>
       </c>
       <c r="BK2" s="16">
@@ -1671,10 +1650,10 @@
       <c r="CH2" s="45">
         <v>1</v>
       </c>
-      <c r="CI2" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="58">
+      <c r="CI2" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="45">
         <v>0</v>
       </c>
       <c r="CK2" s="45">
@@ -1799,29 +1778,29 @@
         <f t="shared" ref="AC3:AC58" si="29">ABS(U3)</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="60">
+      <c r="AD3" s="57">
         <f t="shared" ref="AD3:AD58" si="30">ABS(V3)</f>
         <v>0.68644067796610164</v>
       </c>
-      <c r="AE3" s="60">
+      <c r="AE3" s="57">
         <f t="shared" ref="AE3:AE58" si="31">ABS(W3)</f>
         <v>0.17796610169491525</v>
       </c>
-      <c r="AF3" s="60">
+      <c r="AF3" s="57">
         <f t="shared" ref="AF3:AF58" si="32">ABS(X3)</f>
         <v>0.45762711864406774</v>
       </c>
-      <c r="AG3" s="60">
+      <c r="AG3" s="57">
         <f t="shared" ref="AG3:AG58" si="33">ABS(Y3)</f>
         <v>2.542372881355932E-2</v>
       </c>
       <c r="AH3" s="51">
         <v>1</v>
       </c>
-      <c r="AI3" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="57">
+      <c r="AI3" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="51">
         <v>0</v>
       </c>
       <c r="AK3" s="51">
@@ -1916,10 +1895,10 @@
       <c r="BH3" s="16">
         <v>0</v>
       </c>
-      <c r="BI3" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="56">
+      <c r="BI3" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="16">
         <v>1</v>
       </c>
       <c r="BK3" s="16">
@@ -2014,10 +1993,10 @@
       <c r="CH3" s="45">
         <v>0</v>
       </c>
-      <c r="CI3" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="58">
+      <c r="CI3" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="45">
         <v>0</v>
       </c>
       <c r="CK3" s="45">
@@ -2142,29 +2121,29 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="AD4" s="60">
+      <c r="AD4" s="57">
         <f t="shared" si="30"/>
         <v>0.91525423728813549</v>
       </c>
-      <c r="AE4" s="60">
+      <c r="AE4" s="57">
         <f t="shared" si="31"/>
         <v>0.15254237288135591</v>
       </c>
-      <c r="AF4" s="60">
+      <c r="AF4" s="57">
         <f t="shared" si="32"/>
         <v>0.61016949152542366</v>
       </c>
-      <c r="AG4" s="60">
+      <c r="AG4" s="57">
         <f t="shared" si="33"/>
         <v>5.084745762711864E-2</v>
       </c>
       <c r="AH4" s="51">
         <v>0</v>
       </c>
-      <c r="AI4" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="57">
+      <c r="AI4" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="51">
         <v>1</v>
       </c>
       <c r="AK4" s="51">
@@ -2259,10 +2238,10 @@
       <c r="BH4" s="16">
         <v>0</v>
       </c>
-      <c r="BI4" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="56">
+      <c r="BI4" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="16">
         <v>0</v>
       </c>
       <c r="BK4" s="16">
@@ -2357,10 +2336,10 @@
       <c r="CH4" s="45">
         <v>1</v>
       </c>
-      <c r="CI4" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="58">
+      <c r="CI4" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="45">
         <v>0</v>
       </c>
       <c r="CK4" s="45">
@@ -2485,29 +2464,29 @@
         <f t="shared" si="29"/>
         <v>5.6666666666666661</v>
       </c>
-      <c r="AD5" s="60">
+      <c r="AD5" s="57">
         <f t="shared" si="30"/>
         <v>1.4594594594594594</v>
       </c>
-      <c r="AE5" s="60">
+      <c r="AE5" s="57">
         <f t="shared" si="31"/>
         <v>0.78378378378378355</v>
       </c>
-      <c r="AF5" s="60">
+      <c r="AF5" s="57">
         <f t="shared" si="32"/>
         <v>0.97297297297297292</v>
       </c>
-      <c r="AG5" s="60">
+      <c r="AG5" s="57">
         <f t="shared" si="33"/>
         <v>0.45945945945945937</v>
       </c>
       <c r="AH5" s="51">
         <v>1</v>
       </c>
-      <c r="AI5" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="57">
+      <c r="AI5" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="51">
         <v>0</v>
       </c>
       <c r="AK5" s="51">
@@ -2602,10 +2581,10 @@
       <c r="BH5" s="16">
         <v>0</v>
       </c>
-      <c r="BI5" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="56">
+      <c r="BI5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="16">
         <v>0</v>
       </c>
       <c r="BK5" s="16">
@@ -2700,10 +2679,10 @@
       <c r="CH5" s="45">
         <v>0</v>
       </c>
-      <c r="CI5" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="58">
+      <c r="CI5" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="45">
         <v>1</v>
       </c>
       <c r="CK5" s="45">
@@ -2840,29 +2819,29 @@
         <f t="shared" si="29"/>
         <v>0.11111111111111072</v>
       </c>
-      <c r="AD6" s="60">
+      <c r="AD6" s="57">
         <f t="shared" si="30"/>
         <v>0.30538922155688625</v>
       </c>
-      <c r="AE6" s="60">
+      <c r="AE6" s="57">
         <f t="shared" si="31"/>
         <v>6.5868263473053856E-2</v>
       </c>
-      <c r="AF6" s="60">
+      <c r="AF6" s="57">
         <f t="shared" si="32"/>
         <v>0.20359281437125754</v>
       </c>
-      <c r="AG6" s="60">
+      <c r="AG6" s="57">
         <f t="shared" si="33"/>
         <v>1.996007984031929E-3</v>
       </c>
       <c r="AH6" s="51">
         <v>1</v>
       </c>
-      <c r="AI6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="57">
+      <c r="AI6" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="51">
         <v>1</v>
       </c>
       <c r="AK6" s="51">
@@ -2957,10 +2936,10 @@
       <c r="BH6" s="16">
         <v>0</v>
       </c>
-      <c r="BI6" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="56">
+      <c r="BI6" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="16">
         <v>0</v>
       </c>
       <c r="BK6" s="16">
@@ -3055,10 +3034,10 @@
       <c r="CH6" s="45">
         <v>0</v>
       </c>
-      <c r="CI6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="58">
+      <c r="CI6" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="45">
         <v>0</v>
       </c>
       <c r="CK6" s="45">
@@ -3183,29 +3162,29 @@
         <f t="shared" si="29"/>
         <v>5.6666666666666679</v>
       </c>
-      <c r="AD7" s="60">
+      <c r="AD7" s="57">
         <f t="shared" si="30"/>
         <v>0.33962264150943394</v>
       </c>
-      <c r="AE7" s="60">
+      <c r="AE7" s="57">
         <f t="shared" si="31"/>
         <v>8.4905660377358486E-2</v>
       </c>
-      <c r="AF7" s="60">
+      <c r="AF7" s="57">
         <f t="shared" si="32"/>
         <v>0.22641509433962262</v>
       </c>
-      <c r="AG7" s="60">
+      <c r="AG7" s="57">
         <f t="shared" si="33"/>
         <v>0.16037735849056606</v>
       </c>
       <c r="AH7" s="51">
         <v>0</v>
       </c>
-      <c r="AI7" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="57">
+      <c r="AI7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="51">
         <v>1</v>
       </c>
       <c r="AK7" s="51">
@@ -3300,10 +3279,10 @@
       <c r="BH7" s="16">
         <v>1</v>
       </c>
-      <c r="BI7" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="56">
+      <c r="BI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="16">
         <v>0</v>
       </c>
       <c r="BK7" s="16">
@@ -3398,10 +3377,10 @@
       <c r="CH7" s="45">
         <v>0</v>
       </c>
-      <c r="CI7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="58">
+      <c r="CI7" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="45">
         <v>0</v>
       </c>
       <c r="CK7" s="45">
@@ -3526,29 +3505,29 @@
         <f t="shared" si="29"/>
         <v>3.1111111111111125</v>
       </c>
-      <c r="AD8" s="60">
+      <c r="AD8" s="57">
         <f t="shared" si="30"/>
         <v>0.15217391304347827</v>
       </c>
-      <c r="AE8" s="60">
+      <c r="AE8" s="57">
         <f t="shared" si="31"/>
         <v>0.10144927536231886</v>
       </c>
-      <c r="AF8" s="60">
+      <c r="AF8" s="57">
         <f t="shared" si="32"/>
         <v>0.10144927536231879</v>
       </c>
-      <c r="AG8" s="60">
+      <c r="AG8" s="57">
         <f t="shared" si="33"/>
         <v>0.13526570048309186</v>
       </c>
       <c r="AH8" s="51">
         <v>1</v>
       </c>
-      <c r="AI8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="57">
+      <c r="AI8" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="51">
         <v>0</v>
       </c>
       <c r="AK8" s="51">
@@ -3643,10 +3622,10 @@
       <c r="BH8" s="16">
         <v>0</v>
       </c>
-      <c r="BI8" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="56">
+      <c r="BI8" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="16">
         <v>0</v>
       </c>
       <c r="BK8" s="16">
@@ -3741,10 +3720,10 @@
       <c r="CH8" s="45">
         <v>0</v>
       </c>
-      <c r="CI8" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ8" s="58">
+      <c r="CI8" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="45">
         <v>1</v>
       </c>
       <c r="CK8" s="45">
@@ -3869,29 +3848,29 @@
         <f t="shared" si="29"/>
         <v>2.3333333333333321</v>
       </c>
-      <c r="AD9" s="60">
+      <c r="AD9" s="57">
         <f t="shared" si="30"/>
         <v>0.75</v>
       </c>
-      <c r="AE9" s="60">
+      <c r="AE9" s="57">
         <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF9" s="60">
+      <c r="AF9" s="57">
         <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AG9" s="60">
+      <c r="AG9" s="57">
         <f t="shared" si="33"/>
         <v>0.16666666666666657</v>
       </c>
       <c r="AH9" s="51">
         <v>0</v>
       </c>
-      <c r="AI9" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="57">
+      <c r="AI9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="51">
         <v>1</v>
       </c>
       <c r="AK9" s="51">
@@ -3986,10 +3965,10 @@
       <c r="BH9" s="16">
         <v>0</v>
       </c>
-      <c r="BI9" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ9" s="56">
+      <c r="BI9" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="16">
         <v>0</v>
       </c>
       <c r="BK9" s="16">
@@ -4084,10 +4063,10 @@
       <c r="CH9" s="45">
         <v>1</v>
       </c>
-      <c r="CI9" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="58">
+      <c r="CI9" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="45">
         <v>0</v>
       </c>
       <c r="CK9" s="45">
@@ -4224,29 +4203,29 @@
         <f t="shared" si="29"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="AD10" s="60">
+      <c r="AD10" s="57">
         <f t="shared" si="30"/>
         <v>0.7978723404255319</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AE10" s="57">
         <f t="shared" si="31"/>
         <v>1.0638297872340428</v>
       </c>
-      <c r="AF10" s="60">
+      <c r="AF10" s="57">
         <f t="shared" si="32"/>
         <v>0.53191489361702127</v>
       </c>
-      <c r="AG10" s="60">
+      <c r="AG10" s="57">
         <f t="shared" si="33"/>
         <v>0.88652482269503552</v>
       </c>
       <c r="AH10" s="51">
         <v>0</v>
       </c>
-      <c r="AI10" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="57">
+      <c r="AI10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="51">
         <v>1</v>
       </c>
       <c r="AK10" s="51">
@@ -4341,10 +4320,10 @@
       <c r="BH10" s="16">
         <v>1</v>
       </c>
-      <c r="BI10" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ10" s="56">
+      <c r="BI10" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="16">
         <v>0</v>
       </c>
       <c r="BK10" s="16">
@@ -4439,10 +4418,10 @@
       <c r="CH10" s="45">
         <v>0</v>
       </c>
-      <c r="CI10" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="58">
+      <c r="CI10" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="45">
         <v>0</v>
       </c>
       <c r="CK10" s="45">
@@ -4567,30 +4546,30 @@
         <f t="shared" si="29"/>
         <v>22</v>
       </c>
-      <c r="AD11" s="60">
+      <c r="AD11" s="57">
         <f t="shared" si="30"/>
         <v>0.42700729927007303</v>
       </c>
-      <c r="AE11" s="60">
+      <c r="AE11" s="57">
         <f t="shared" si="31"/>
         <v>0.57664233576642343</v>
       </c>
-      <c r="AF11" s="60">
+      <c r="AF11" s="57">
         <f t="shared" si="32"/>
         <v>0.28467153284671537</v>
       </c>
-      <c r="AG11" s="60">
+      <c r="AG11" s="57">
         <f t="shared" si="33"/>
         <v>0.48175182481751827</v>
       </c>
       <c r="AH11" s="51">
         <v>1</v>
       </c>
-      <c r="AI11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="57">
-        <v>0</v>
+      <c r="AI11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="51">
+        <v>1</v>
       </c>
       <c r="AK11" s="51">
         <v>0</v>
@@ -4684,10 +4663,10 @@
       <c r="BH11" s="16">
         <v>0</v>
       </c>
-      <c r="BI11" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="56">
+      <c r="BI11" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="16">
         <v>0</v>
       </c>
       <c r="BK11" s="16">
@@ -4782,11 +4761,11 @@
       <c r="CH11" s="45">
         <v>0</v>
       </c>
-      <c r="CI11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="58">
-        <v>1</v>
+      <c r="CI11" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="45">
+        <v>0</v>
       </c>
       <c r="CK11" s="45">
         <v>1</v>
@@ -4910,30 +4889,30 @@
         <f t="shared" si="29"/>
         <v>32.888888888888893</v>
       </c>
-      <c r="AD12" s="60">
+      <c r="AD12" s="57">
         <f t="shared" si="30"/>
         <v>0.66923076923076918</v>
       </c>
-      <c r="AE12" s="60">
+      <c r="AE12" s="57">
         <f t="shared" si="31"/>
         <v>0.90769230769230769</v>
       </c>
-      <c r="AF12" s="60">
+      <c r="AF12" s="57">
         <f t="shared" si="32"/>
         <v>0.44615384615384618</v>
       </c>
-      <c r="AG12" s="60">
+      <c r="AG12" s="57">
         <f t="shared" si="33"/>
         <v>0.75897435897435905</v>
       </c>
       <c r="AH12" s="51">
         <v>0</v>
       </c>
-      <c r="AI12" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="57">
-        <v>1</v>
+      <c r="AI12" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="51">
+        <v>0</v>
       </c>
       <c r="AK12" s="51">
         <v>1</v>
@@ -5027,10 +5006,10 @@
       <c r="BH12" s="16">
         <v>1</v>
       </c>
-      <c r="BI12" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="56">
+      <c r="BI12" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="16">
         <v>0</v>
       </c>
       <c r="BK12" s="16">
@@ -5125,11 +5104,11 @@
       <c r="CH12" s="45">
         <v>1</v>
       </c>
-      <c r="CI12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="58">
-        <v>0</v>
+      <c r="CI12" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="45">
+        <v>1</v>
       </c>
       <c r="CK12" s="45">
         <v>1</v>
@@ -5253,29 +5232,29 @@
         <f t="shared" si="29"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="AD13" s="60">
+      <c r="AD13" s="57">
         <f t="shared" si="30"/>
         <v>0.19354838709677419</v>
       </c>
-      <c r="AE13" s="60">
+      <c r="AE13" s="57">
         <f t="shared" si="31"/>
         <v>0.17204301075268824</v>
       </c>
-      <c r="AF13" s="60">
+      <c r="AF13" s="57">
         <f t="shared" si="32"/>
         <v>0.12903225806451613</v>
       </c>
-      <c r="AG13" s="60">
+      <c r="AG13" s="57">
         <f t="shared" si="33"/>
         <v>0.21505376344086025</v>
       </c>
       <c r="AH13" s="51">
         <v>0</v>
       </c>
-      <c r="AI13" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="57">
+      <c r="AI13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="51">
         <v>0</v>
       </c>
       <c r="AK13" s="51">
@@ -5370,11 +5349,11 @@
       <c r="BH13" s="16">
         <v>1</v>
       </c>
-      <c r="BI13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="56">
-        <v>1</v>
+      <c r="BI13" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="16">
+        <v>0</v>
       </c>
       <c r="BK13" s="16">
         <v>1</v>
@@ -5468,11 +5447,11 @@
       <c r="CH13" s="45">
         <v>0</v>
       </c>
-      <c r="CI13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ13" s="58">
-        <v>0</v>
+      <c r="CI13" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="45">
+        <v>1</v>
       </c>
       <c r="CK13" s="45">
         <v>0</v>
@@ -5608,29 +5587,29 @@
         <f t="shared" si="29"/>
         <v>1.6666666666666679</v>
       </c>
-      <c r="AD14" s="60">
+      <c r="AD14" s="57">
         <f t="shared" si="30"/>
         <v>0.22959183673469388</v>
       </c>
-      <c r="AE14" s="60">
+      <c r="AE14" s="57">
         <f t="shared" si="31"/>
         <v>2.5510204081632619E-2</v>
       </c>
-      <c r="AF14" s="60">
+      <c r="AF14" s="57">
         <f t="shared" si="32"/>
         <v>0.15306122448979592</v>
       </c>
-      <c r="AG14" s="60">
+      <c r="AG14" s="57">
         <f t="shared" si="33"/>
         <v>2.5510204081632674E-2</v>
       </c>
       <c r="AH14" s="51">
         <v>1</v>
       </c>
-      <c r="AI14" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="57">
+      <c r="AI14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="51">
         <v>1</v>
       </c>
       <c r="AK14" s="51">
@@ -5725,10 +5704,10 @@
       <c r="BH14" s="16">
         <v>0</v>
       </c>
-      <c r="BI14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="56">
+      <c r="BI14" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="16">
         <v>0</v>
       </c>
       <c r="BK14" s="16">
@@ -5823,10 +5802,10 @@
       <c r="CH14" s="45">
         <v>0</v>
       </c>
-      <c r="CI14" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ14" s="58">
+      <c r="CI14" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="45">
         <v>0</v>
       </c>
       <c r="CK14" s="45">
@@ -5951,29 +5930,29 @@
         <f t="shared" si="29"/>
         <v>7.3333333333333321</v>
       </c>
-      <c r="AD15" s="60">
+      <c r="AD15" s="57">
         <f t="shared" si="30"/>
         <v>0.99473684210526314</v>
       </c>
-      <c r="AE15" s="60">
+      <c r="AE15" s="57">
         <f t="shared" si="31"/>
         <v>0.45263157894736827</v>
       </c>
-      <c r="AF15" s="60">
+      <c r="AF15" s="57">
         <f t="shared" si="32"/>
         <v>0.66315789473684206</v>
       </c>
-      <c r="AG15" s="60">
+      <c r="AG15" s="57">
         <f t="shared" si="33"/>
         <v>0.231578947368421</v>
       </c>
       <c r="AH15" s="51">
         <v>1</v>
       </c>
-      <c r="AI15" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="57">
+      <c r="AI15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="51">
         <v>1</v>
       </c>
       <c r="AK15" s="51">
@@ -6068,10 +6047,10 @@
       <c r="BH15" s="16">
         <v>0</v>
       </c>
-      <c r="BI15" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="56">
+      <c r="BI15" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="16">
         <v>0</v>
       </c>
       <c r="BK15" s="16">
@@ -6166,10 +6145,10 @@
       <c r="CH15" s="45">
         <v>0</v>
       </c>
-      <c r="CI15" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="58">
+      <c r="CI15" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="45">
         <v>0</v>
       </c>
       <c r="CK15" s="45">
@@ -6294,30 +6273,30 @@
         <f t="shared" si="29"/>
         <v>16.111111111111111</v>
       </c>
-      <c r="AD16" s="60">
+      <c r="AD16" s="57">
         <f t="shared" si="30"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="AE16" s="60">
+      <c r="AE16" s="57">
         <f t="shared" si="31"/>
         <v>0.40000000000000008</v>
       </c>
-      <c r="AF16" s="60">
+      <c r="AF16" s="57">
         <f t="shared" si="32"/>
         <v>3.9999999999999945E-2</v>
       </c>
-      <c r="AG16" s="60">
+      <c r="AG16" s="57">
         <f t="shared" si="33"/>
         <v>0.38666666666666666</v>
       </c>
       <c r="AH16" s="51">
         <v>0</v>
       </c>
-      <c r="AI16" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="57">
-        <v>0</v>
+      <c r="AI16" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="51">
+        <v>1</v>
       </c>
       <c r="AK16" s="51">
         <v>1</v>
@@ -6411,10 +6390,10 @@
       <c r="BH16" s="16">
         <v>0</v>
       </c>
-      <c r="BI16" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="56">
+      <c r="BI16" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="16">
         <v>0</v>
       </c>
       <c r="BK16" s="16">
@@ -6509,11 +6488,11 @@
       <c r="CH16" s="45">
         <v>1</v>
       </c>
-      <c r="CI16" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ16" s="58">
-        <v>1</v>
+      <c r="CI16" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="45">
+        <v>0</v>
       </c>
       <c r="CK16" s="45">
         <v>0</v>
@@ -6637,30 +6616,30 @@
         <f t="shared" si="29"/>
         <v>7.4444444444444429</v>
       </c>
-      <c r="AD17" s="60">
+      <c r="AD17" s="57">
         <f t="shared" si="30"/>
         <v>1.2727272727272727</v>
       </c>
-      <c r="AE17" s="60">
+      <c r="AE17" s="57">
         <f t="shared" si="31"/>
         <v>0.6212121212121211</v>
       </c>
-      <c r="AF17" s="60">
+      <c r="AF17" s="57">
         <f t="shared" si="32"/>
         <v>0.8484848484848484</v>
       </c>
-      <c r="AG17" s="60">
+      <c r="AG17" s="57">
         <f t="shared" si="33"/>
         <v>0.33838383838383829</v>
       </c>
       <c r="AH17" s="51">
         <v>1</v>
       </c>
-      <c r="AI17" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="57">
-        <v>0</v>
+      <c r="AI17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="51">
+        <v>1</v>
       </c>
       <c r="AK17" s="51">
         <v>1</v>
@@ -6754,11 +6733,11 @@
       <c r="BH17" s="16">
         <v>0</v>
       </c>
-      <c r="BI17" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="56">
-        <v>0</v>
+      <c r="BI17" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="16">
+        <v>1</v>
       </c>
       <c r="BK17" s="16">
         <v>1</v>
@@ -6852,11 +6831,11 @@
       <c r="CH17" s="45">
         <v>0</v>
       </c>
-      <c r="CI17" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="58">
-        <v>1</v>
+      <c r="CI17" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="45">
+        <v>0</v>
       </c>
       <c r="CK17" s="45">
         <v>1</v>
@@ -6992,30 +6971,30 @@
         <f t="shared" si="29"/>
         <v>6.4444444444444429</v>
       </c>
-      <c r="AD18" s="60">
+      <c r="AD18" s="57">
         <f t="shared" si="30"/>
         <v>0.97916666666666663</v>
       </c>
-      <c r="AE18" s="60">
+      <c r="AE18" s="57">
         <f t="shared" si="31"/>
         <v>0.48611111111111099</v>
       </c>
-      <c r="AF18" s="60">
+      <c r="AF18" s="57">
         <f t="shared" si="32"/>
         <v>0.65277777777777779</v>
       </c>
-      <c r="AG18" s="60">
+      <c r="AG18" s="57">
         <f t="shared" si="33"/>
         <v>0.26851851851851843</v>
       </c>
       <c r="AH18" s="51">
         <v>1</v>
       </c>
-      <c r="AI18" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="57">
-        <v>0</v>
+      <c r="AI18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="51">
+        <v>1</v>
       </c>
       <c r="AK18" s="51">
         <v>2</v>
@@ -7109,10 +7088,10 @@
       <c r="BH18" s="16">
         <v>0</v>
       </c>
-      <c r="BI18" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="56">
+      <c r="BI18" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="16">
         <v>0</v>
       </c>
       <c r="BK18" s="16">
@@ -7207,11 +7186,11 @@
       <c r="CH18" s="45">
         <v>0</v>
       </c>
-      <c r="CI18" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ18" s="58">
-        <v>1</v>
+      <c r="CI18" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="45">
+        <v>0</v>
       </c>
       <c r="CK18" s="45">
         <v>0</v>
@@ -7335,30 +7314,30 @@
         <f t="shared" si="29"/>
         <v>4.7777777777777786</v>
       </c>
-      <c r="AD19" s="60">
+      <c r="AD19" s="57">
         <f t="shared" si="30"/>
         <v>1.6304347826086956E-2</v>
       </c>
-      <c r="AE19" s="60">
+      <c r="AE19" s="57">
         <f t="shared" si="31"/>
         <v>0.1521739130434783</v>
       </c>
-      <c r="AF19" s="60">
+      <c r="AF19" s="57">
         <f t="shared" si="32"/>
         <v>1.0869565217391323E-2</v>
       </c>
-      <c r="AG19" s="60">
+      <c r="AG19" s="57">
         <f t="shared" si="33"/>
         <v>0.15579710144927539</v>
       </c>
       <c r="AH19" s="51">
         <v>1</v>
       </c>
-      <c r="AI19" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="57">
-        <v>1</v>
+      <c r="AI19" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="51">
+        <v>0</v>
       </c>
       <c r="AK19" s="51">
         <v>1</v>
@@ -7452,10 +7431,10 @@
       <c r="BH19" s="16">
         <v>0</v>
       </c>
-      <c r="BI19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="56">
+      <c r="BI19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="16">
         <v>0</v>
       </c>
       <c r="BK19" s="16">
@@ -7550,11 +7529,11 @@
       <c r="CH19" s="45">
         <v>0</v>
       </c>
-      <c r="CI19" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ19" s="58">
-        <v>0</v>
+      <c r="CI19" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="45">
+        <v>1</v>
       </c>
       <c r="CK19" s="45">
         <v>0</v>
@@ -7678,29 +7657,29 @@
         <f t="shared" si="29"/>
         <v>7.5555555555555571</v>
       </c>
-      <c r="AD20" s="60">
+      <c r="AD20" s="57">
         <f t="shared" si="30"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="AE20" s="60">
+      <c r="AE20" s="57">
         <f t="shared" si="31"/>
         <v>0.34375000000000011</v>
       </c>
-      <c r="AF20" s="60">
+      <c r="AF20" s="57">
         <f t="shared" si="32"/>
         <v>3.1250000000000056E-2</v>
       </c>
-      <c r="AG20" s="60">
+      <c r="AG20" s="57">
         <f t="shared" si="33"/>
         <v>0.35416666666666674</v>
       </c>
       <c r="AH20" s="51">
         <v>0</v>
       </c>
-      <c r="AI20" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="57">
+      <c r="AI20" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="51">
         <v>0</v>
       </c>
       <c r="AK20" s="51">
@@ -7795,10 +7774,10 @@
       <c r="BH20" s="16">
         <v>1</v>
       </c>
-      <c r="BI20" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="56">
+      <c r="BI20" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="16">
         <v>1</v>
       </c>
       <c r="BK20" s="16">
@@ -7893,10 +7872,10 @@
       <c r="CH20" s="45">
         <v>0</v>
       </c>
-      <c r="CI20" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ20" s="58">
+      <c r="CI20" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ20" s="45">
         <v>0</v>
       </c>
       <c r="CK20" s="45">
@@ -8021,30 +8000,30 @@
         <f t="shared" si="29"/>
         <v>2.8888888888888893</v>
       </c>
-      <c r="AD21" s="60">
+      <c r="AD21" s="57">
         <f t="shared" si="30"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="AE21" s="60">
+      <c r="AE21" s="57">
         <f t="shared" si="31"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="AF21" s="60">
+      <c r="AF21" s="57">
         <f t="shared" si="32"/>
         <v>0.15384615384615394</v>
       </c>
-      <c r="AG21" s="60">
+      <c r="AG21" s="57">
         <f t="shared" si="33"/>
         <v>0.16666666666666671</v>
       </c>
       <c r="AH21" s="51">
         <v>1</v>
       </c>
-      <c r="AI21" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="57">
-        <v>0</v>
+      <c r="AI21" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="51">
+        <v>1</v>
       </c>
       <c r="AK21" s="51">
         <v>0</v>
@@ -8138,11 +8117,11 @@
       <c r="BH21" s="16">
         <v>0</v>
       </c>
-      <c r="BI21" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="56">
-        <v>1</v>
+      <c r="BI21" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="16">
+        <v>0</v>
       </c>
       <c r="BK21" s="16">
         <v>0</v>
@@ -8236,10 +8215,10 @@
       <c r="CH21" s="45">
         <v>0</v>
       </c>
-      <c r="CI21" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ21" s="58">
+      <c r="CI21" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ21" s="45">
         <v>0</v>
       </c>
       <c r="CK21" s="45">
@@ -8376,29 +8355,29 @@
         <f t="shared" si="29"/>
         <v>5.8888888888888893</v>
       </c>
-      <c r="AD22" s="60">
+      <c r="AD22" s="57">
         <f t="shared" si="30"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="AE22" s="60">
+      <c r="AE22" s="57">
         <f t="shared" si="31"/>
         <v>0.27142857142857146</v>
       </c>
-      <c r="AF22" s="60">
+      <c r="AF22" s="57">
         <f t="shared" si="32"/>
         <v>5.7142857142857169E-2</v>
       </c>
-      <c r="AG22" s="60">
+      <c r="AG22" s="57">
         <f t="shared" si="33"/>
         <v>0.25238095238095243</v>
       </c>
       <c r="AH22" s="51">
         <v>1</v>
       </c>
-      <c r="AI22" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="57">
+      <c r="AI22" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="51">
         <v>0</v>
       </c>
       <c r="AK22" s="51">
@@ -8493,10 +8472,10 @@
       <c r="BH22" s="16">
         <v>0</v>
       </c>
-      <c r="BI22" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="56">
+      <c r="BI22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="16">
         <v>0</v>
       </c>
       <c r="BK22" s="16">
@@ -8591,10 +8570,10 @@
       <c r="CH22" s="45">
         <v>0</v>
       </c>
-      <c r="CI22" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ22" s="58">
+      <c r="CI22" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ22" s="45">
         <v>1</v>
       </c>
       <c r="CK22" s="45">
@@ -8719,29 +8698,29 @@
         <f t="shared" si="29"/>
         <v>0.88888888888888751</v>
       </c>
-      <c r="AD23" s="60">
+      <c r="AD23" s="57">
         <f t="shared" si="30"/>
         <v>0.5089285714285714</v>
       </c>
-      <c r="AE23" s="60">
+      <c r="AE23" s="57">
         <f t="shared" si="31"/>
         <v>0.1607142857142857</v>
       </c>
-      <c r="AF23" s="60">
+      <c r="AF23" s="57">
         <f t="shared" si="32"/>
         <v>0.33928571428571419</v>
       </c>
-      <c r="AG23" s="60">
+      <c r="AG23" s="57">
         <f t="shared" si="33"/>
         <v>4.761904761904754E-2</v>
       </c>
       <c r="AH23" s="51">
         <v>1</v>
       </c>
-      <c r="AI23" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="57">
+      <c r="AI23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="51">
         <v>1</v>
       </c>
       <c r="AK23" s="51">
@@ -8836,10 +8815,10 @@
       <c r="BH23" s="16">
         <v>0</v>
       </c>
-      <c r="BI23" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="56">
+      <c r="BI23" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="16">
         <v>0</v>
       </c>
       <c r="BK23" s="16">
@@ -8934,10 +8913,10 @@
       <c r="CH23" s="45">
         <v>0</v>
       </c>
-      <c r="CI23" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ23" s="58">
+      <c r="CI23" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ23" s="45">
         <v>0</v>
       </c>
       <c r="CK23" s="45">
@@ -9062,30 +9041,30 @@
         <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="AD24" s="60">
+      <c r="AD24" s="57">
         <f t="shared" si="30"/>
         <v>0.59433962264150941</v>
       </c>
-      <c r="AE24" s="60">
+      <c r="AE24" s="57">
         <f t="shared" si="31"/>
         <v>0.86792452830188682</v>
       </c>
-      <c r="AF24" s="60">
+      <c r="AF24" s="57">
         <f t="shared" si="32"/>
         <v>0.39622641509433959</v>
       </c>
-      <c r="AG24" s="60">
+      <c r="AG24" s="57">
         <f t="shared" si="33"/>
         <v>0.73584905660377353</v>
       </c>
       <c r="AH24" s="51">
         <v>0</v>
       </c>
-      <c r="AI24" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="57">
-        <v>1</v>
+      <c r="AI24" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="51">
+        <v>0</v>
       </c>
       <c r="AK24" s="51">
         <v>2</v>
@@ -9179,11 +9158,11 @@
       <c r="BH24" s="16">
         <v>0</v>
       </c>
-      <c r="BI24" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="56">
-        <v>0</v>
+      <c r="BI24" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="16">
+        <v>1</v>
       </c>
       <c r="BK24" s="16">
         <v>2</v>
@@ -9277,10 +9256,10 @@
       <c r="CH24" s="45">
         <v>1</v>
       </c>
-      <c r="CI24" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ24" s="58">
+      <c r="CI24" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ24" s="45">
         <v>0</v>
       </c>
       <c r="CK24" s="45">
@@ -9405,29 +9384,29 @@
         <f t="shared" si="29"/>
         <v>3.6666666666666679</v>
       </c>
-      <c r="AD25" s="60">
+      <c r="AD25" s="57">
         <f t="shared" si="30"/>
         <v>0.15</v>
       </c>
-      <c r="AE25" s="60">
+      <c r="AE25" s="57">
         <f t="shared" si="31"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="AF25" s="60">
+      <c r="AF25" s="57">
         <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
-      <c r="AG25" s="60">
+      <c r="AG25" s="57">
         <f t="shared" si="33"/>
         <v>0.36666666666666681</v>
       </c>
       <c r="AH25" s="51">
         <v>0</v>
       </c>
-      <c r="AI25" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="57">
+      <c r="AI25" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="51">
         <v>0</v>
       </c>
       <c r="AK25" s="51">
@@ -9522,10 +9501,10 @@
       <c r="BH25" s="16">
         <v>0</v>
       </c>
-      <c r="BI25" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="56">
+      <c r="BI25" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="16">
         <v>1</v>
       </c>
       <c r="BK25" s="16">
@@ -9620,10 +9599,10 @@
       <c r="CH25" s="45">
         <v>1</v>
       </c>
-      <c r="CI25" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="58">
+      <c r="CI25" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ25" s="45">
         <v>0</v>
       </c>
       <c r="CK25" s="45">
@@ -9760,29 +9739,29 @@
         <f t="shared" si="29"/>
         <v>9.777777777777775</v>
       </c>
-      <c r="AD26" s="60">
+      <c r="AD26" s="57">
         <f t="shared" si="30"/>
         <v>0.73101265822784811</v>
       </c>
-      <c r="AE26" s="60">
+      <c r="AE26" s="57">
         <f t="shared" si="31"/>
         <v>0.34810126582278472</v>
       </c>
-      <c r="AF26" s="60">
+      <c r="AF26" s="57">
         <f t="shared" si="32"/>
         <v>0.48734177215189872</v>
       </c>
-      <c r="AG26" s="60">
+      <c r="AG26" s="57">
         <f t="shared" si="33"/>
         <v>0.18565400843881852</v>
       </c>
       <c r="AH26" s="51">
         <v>1</v>
       </c>
-      <c r="AI26" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="57">
+      <c r="AI26" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="51">
         <v>0</v>
       </c>
       <c r="AK26" s="51">
@@ -9877,10 +9856,10 @@
       <c r="BH26" s="16">
         <v>0</v>
       </c>
-      <c r="BI26" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="56">
+      <c r="BI26" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="16">
         <v>0</v>
       </c>
       <c r="BK26" s="16">
@@ -9975,10 +9954,10 @@
       <c r="CH26" s="45">
         <v>0</v>
       </c>
-      <c r="CI26" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ26" s="58">
+      <c r="CI26" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="45">
         <v>1</v>
       </c>
       <c r="CK26" s="45">
@@ -10103,30 +10082,30 @@
         <f t="shared" si="29"/>
         <v>5.6666666666666643</v>
       </c>
-      <c r="AD27" s="60">
+      <c r="AD27" s="57">
         <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="AE27" s="60">
+      <c r="AE27" s="57">
         <f t="shared" si="31"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="AF27" s="60">
+      <c r="AF27" s="57">
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="AG27" s="60">
+      <c r="AG27" s="57">
         <f t="shared" si="33"/>
         <v>0.19999999999999993</v>
       </c>
       <c r="AH27" s="51">
         <v>0</v>
       </c>
-      <c r="AI27" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="57">
-        <v>0</v>
+      <c r="AI27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="51">
+        <v>1</v>
       </c>
       <c r="AK27" s="51">
         <v>0</v>
@@ -10220,10 +10199,10 @@
       <c r="BH27" s="16">
         <v>1</v>
       </c>
-      <c r="BI27" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="56">
+      <c r="BI27" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="16">
         <v>0</v>
       </c>
       <c r="BK27" s="16">
@@ -10318,11 +10297,11 @@
       <c r="CH27" s="45">
         <v>0</v>
       </c>
-      <c r="CI27" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ27" s="58">
-        <v>1</v>
+      <c r="CI27" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="45">
+        <v>0</v>
       </c>
       <c r="CK27" s="45">
         <v>0</v>
@@ -10446,30 +10425,30 @@
         <f t="shared" si="29"/>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AD28" s="60">
+      <c r="AD28" s="57">
         <f t="shared" si="30"/>
         <v>0.79411764705882348</v>
       </c>
-      <c r="AE28" s="60">
+      <c r="AE28" s="57">
         <f t="shared" si="31"/>
         <v>0.37254901960784309</v>
       </c>
-      <c r="AF28" s="60">
+      <c r="AF28" s="57">
         <f t="shared" si="32"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="AG28" s="60">
+      <c r="AG28" s="57">
         <f t="shared" si="33"/>
         <v>0.19607843137254896</v>
       </c>
       <c r="AH28" s="51">
         <v>0</v>
       </c>
-      <c r="AI28" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="57">
-        <v>0</v>
+      <c r="AI28" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="51">
+        <v>1</v>
       </c>
       <c r="AK28" s="51">
         <v>0</v>
@@ -10563,10 +10542,10 @@
       <c r="BH28" s="16">
         <v>1</v>
       </c>
-      <c r="BI28" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="56">
+      <c r="BI28" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="16">
         <v>0</v>
       </c>
       <c r="BK28" s="16">
@@ -10661,11 +10640,11 @@
       <c r="CH28" s="45">
         <v>0</v>
       </c>
-      <c r="CI28" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ28" s="58">
-        <v>1</v>
+      <c r="CI28" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="45">
+        <v>0</v>
       </c>
       <c r="CK28" s="45">
         <v>1</v>
@@ -10789,30 +10768,30 @@
         <f t="shared" si="29"/>
         <v>2.5555555555555554</v>
       </c>
-      <c r="AD29" s="60">
+      <c r="AD29" s="57">
         <f t="shared" si="30"/>
         <v>1.0909090909090911</v>
       </c>
-      <c r="AE29" s="60">
+      <c r="AE29" s="57">
         <f t="shared" si="31"/>
         <v>0.59090909090909094</v>
       </c>
-      <c r="AF29" s="60">
+      <c r="AF29" s="57">
         <f t="shared" si="32"/>
         <v>0.7272727272727274</v>
       </c>
-      <c r="AG29" s="60">
+      <c r="AG29" s="57">
         <f t="shared" si="33"/>
         <v>0.34848484848484845</v>
       </c>
       <c r="AH29" s="51">
         <v>1</v>
       </c>
-      <c r="AI29" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="57">
-        <v>1</v>
+      <c r="AI29" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="51">
+        <v>0</v>
       </c>
       <c r="AK29" s="51">
         <v>0</v>
@@ -10906,11 +10885,11 @@
       <c r="BH29" s="16">
         <v>0</v>
       </c>
-      <c r="BI29" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="56">
-        <v>0</v>
+      <c r="BI29" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="16">
+        <v>1</v>
       </c>
       <c r="BK29" s="16">
         <v>0</v>
@@ -11004,10 +10983,10 @@
       <c r="CH29" s="45">
         <v>0</v>
       </c>
-      <c r="CI29" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ29" s="58">
+      <c r="CI29" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="45">
         <v>0</v>
       </c>
       <c r="CK29" s="45">
@@ -11144,29 +11123,29 @@
         <f t="shared" si="29"/>
         <v>12.888888888888886</v>
       </c>
-      <c r="AD30" s="60">
+      <c r="AD30" s="57">
         <f t="shared" si="30"/>
         <v>1.4368421052631579</v>
       </c>
-      <c r="AE30" s="60">
+      <c r="AE30" s="57">
         <f t="shared" si="31"/>
         <v>0.72631578947368414</v>
       </c>
-      <c r="AF30" s="60">
+      <c r="AF30" s="57">
         <f t="shared" si="32"/>
         <v>0.95789473684210535</v>
       </c>
-      <c r="AG30" s="60">
+      <c r="AG30" s="57">
         <f t="shared" si="33"/>
         <v>0.407017543859649</v>
       </c>
       <c r="AH30" s="51">
         <v>1</v>
       </c>
-      <c r="AI30" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="57">
+      <c r="AI30" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="51">
         <v>0</v>
       </c>
       <c r="AK30" s="51">
@@ -11261,11 +11240,11 @@
       <c r="BH30" s="16">
         <v>0</v>
       </c>
-      <c r="BI30" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="56">
-        <v>1</v>
+      <c r="BI30" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="16">
+        <v>0</v>
       </c>
       <c r="BK30" s="16">
         <v>1</v>
@@ -11359,11 +11338,11 @@
       <c r="CH30" s="45">
         <v>0</v>
       </c>
-      <c r="CI30" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ30" s="58">
-        <v>0</v>
+      <c r="CI30" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ30" s="45">
+        <v>1</v>
       </c>
       <c r="CK30" s="45">
         <v>0</v>
@@ -11487,30 +11466,30 @@
         <f t="shared" si="29"/>
         <v>0.11111111111111072</v>
       </c>
-      <c r="AD31" s="60">
+      <c r="AD31" s="57">
         <f t="shared" si="30"/>
         <v>0.56557377049180335</v>
       </c>
-      <c r="AE31" s="60">
+      <c r="AE31" s="57">
         <f t="shared" si="31"/>
         <v>0.13114754098360645</v>
       </c>
-      <c r="AF31" s="60">
+      <c r="AF31" s="57">
         <f t="shared" si="32"/>
         <v>0.37704918032786894</v>
       </c>
-      <c r="AG31" s="60">
+      <c r="AG31" s="57">
         <f t="shared" si="33"/>
         <v>5.4644808743169208E-3</v>
       </c>
       <c r="AH31" s="51">
         <v>1</v>
       </c>
-      <c r="AI31" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="57">
-        <v>1</v>
+      <c r="AI31" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="51">
+        <v>0</v>
       </c>
       <c r="AK31" s="51">
         <v>0</v>
@@ -11604,10 +11583,10 @@
       <c r="BH31" s="16">
         <v>0</v>
       </c>
-      <c r="BI31" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="56">
+      <c r="BI31" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="16">
         <v>0</v>
       </c>
       <c r="BK31" s="16">
@@ -11702,11 +11681,11 @@
       <c r="CH31" s="45">
         <v>0</v>
       </c>
-      <c r="CI31" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ31" s="58">
-        <v>0</v>
+      <c r="CI31" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="45">
+        <v>1</v>
       </c>
       <c r="CK31" s="45">
         <v>1</v>
@@ -11830,29 +11809,29 @@
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="AD32" s="60">
+      <c r="AD32" s="57">
         <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AE32" s="60">
+      <c r="AE32" s="57">
         <f t="shared" si="31"/>
         <v>0.42499999999999993</v>
       </c>
-      <c r="AF32" s="60">
+      <c r="AF32" s="57">
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="AG32" s="60">
+      <c r="AG32" s="57">
         <f t="shared" si="33"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="AH32" s="51">
         <v>1</v>
       </c>
-      <c r="AI32" s="57">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="57">
+      <c r="AI32" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="51">
         <v>0</v>
       </c>
       <c r="AK32" s="51">
@@ -11947,11 +11926,11 @@
       <c r="BH32" s="16">
         <v>0</v>
       </c>
-      <c r="BI32" s="56">
-        <v>1</v>
-      </c>
-      <c r="BJ32" s="56">
-        <v>1</v>
+      <c r="BI32" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="16">
+        <v>0</v>
       </c>
       <c r="BK32" s="16">
         <v>2</v>
@@ -12045,11 +12024,11 @@
       <c r="CH32" s="45">
         <v>0</v>
       </c>
-      <c r="CI32" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ32" s="58">
-        <v>0</v>
+      <c r="CI32" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ32" s="45">
+        <v>1</v>
       </c>
       <c r="CK32" s="45">
         <v>1</v>
@@ -12173,30 +12152,30 @@
         <f t="shared" si="29"/>
         <v>2.5555555555555554</v>
       </c>
-      <c r="AD33" s="60">
+      <c r="AD33" s="57">
         <f t="shared" si="30"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AE33" s="60">
+      <c r="AE33" s="57">
         <f t="shared" si="31"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="AF33" s="60">
+      <c r="AF33" s="57">
         <f t="shared" si="32"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="AG33" s="60">
+      <c r="AG33" s="57">
         <f t="shared" si="33"/>
         <v>0.42592592592592587</v>
       </c>
       <c r="AH33" s="51">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="57">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI33" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="51">
+        <v>1</v>
       </c>
       <c r="AK33" s="51">
         <v>1</v>
@@ -12290,10 +12269,10 @@
       <c r="BH33" s="16">
         <v>1</v>
       </c>
-      <c r="BI33" s="56">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="56">
+      <c r="BI33" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="16">
         <v>0</v>
       </c>
       <c r="BK33" s="16">
@@ -12388,11 +12367,11 @@
       <c r="CH33" s="45">
         <v>0</v>
       </c>
-      <c r="CI33" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ33" s="58">
-        <v>1</v>
+      <c r="CI33" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="45">
+        <v>0</v>
       </c>
       <c r="CK33" s="45">
         <v>1</v>
@@ -12528,27 +12507,31 @@
         <f t="shared" si="29"/>
         <v>6.5555555555555562</v>
       </c>
-      <c r="AD34" s="60">
+      <c r="AD34" s="57">
         <f t="shared" si="30"/>
         <v>0.19736842105263158</v>
       </c>
-      <c r="AE34" s="60">
+      <c r="AE34" s="57">
         <f t="shared" si="31"/>
         <v>0.30263157894736847</v>
       </c>
-      <c r="AF34" s="60">
+      <c r="AF34" s="57">
         <f t="shared" si="32"/>
         <v>0.13157894736842107</v>
       </c>
-      <c r="AG34" s="60">
+      <c r="AG34" s="57">
         <f t="shared" si="33"/>
         <v>0.25877192982456143</v>
       </c>
       <c r="AH34" s="51">
         <v>1</v>
       </c>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
+      <c r="AI34" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="51">
+        <v>0</v>
+      </c>
       <c r="AK34" s="51">
         <v>1</v>
       </c>
@@ -12641,8 +12624,12 @@
       <c r="BH34" s="16">
         <v>0</v>
       </c>
-      <c r="BI34" s="16"/>
-      <c r="BJ34" s="16"/>
+      <c r="BI34" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="16">
+        <v>1</v>
+      </c>
       <c r="BK34" s="16">
         <v>1</v>
       </c>
@@ -12735,8 +12722,12 @@
       <c r="CH34" s="45">
         <v>0</v>
       </c>
-      <c r="CI34" s="45"/>
-      <c r="CJ34" s="45"/>
+      <c r="CI34" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ34" s="45">
+        <v>0</v>
+      </c>
       <c r="CK34" s="45">
         <v>0</v>
       </c>
@@ -12859,27 +12850,31 @@
         <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="AD35" s="60">
+      <c r="AD35" s="57">
         <f t="shared" si="30"/>
         <v>0.30681818181818182</v>
       </c>
-      <c r="AE35" s="60">
+      <c r="AE35" s="57">
         <f t="shared" si="31"/>
         <v>0.51136363636363635</v>
       </c>
-      <c r="AF35" s="60">
+      <c r="AF35" s="57">
         <f t="shared" si="32"/>
         <v>0.20454545454545456</v>
       </c>
-      <c r="AG35" s="60">
+      <c r="AG35" s="57">
         <f t="shared" si="33"/>
         <v>0.44318181818181818</v>
       </c>
       <c r="AH35" s="51">
         <v>1</v>
       </c>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
+      <c r="AI35" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="51">
+        <v>1</v>
+      </c>
       <c r="AK35" s="51">
         <v>0</v>
       </c>
@@ -12972,8 +12967,12 @@
       <c r="BH35" s="16">
         <v>0</v>
       </c>
-      <c r="BI35" s="16"/>
-      <c r="BJ35" s="16"/>
+      <c r="BI35" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="16">
+        <v>0</v>
+      </c>
       <c r="BK35" s="16">
         <v>0</v>
       </c>
@@ -13066,8 +13065,12 @@
       <c r="CH35" s="45">
         <v>0</v>
       </c>
-      <c r="CI35" s="45"/>
-      <c r="CJ35" s="45"/>
+      <c r="CI35" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ35" s="45">
+        <v>0</v>
+      </c>
       <c r="CK35" s="45">
         <v>0</v>
       </c>
@@ -13190,27 +13193,31 @@
         <f t="shared" si="29"/>
         <v>0.77777777777777857</v>
       </c>
-      <c r="AD36" s="60">
+      <c r="AD36" s="57">
         <f t="shared" si="30"/>
         <v>0.1889763779527559</v>
       </c>
-      <c r="AE36" s="60">
+      <c r="AE36" s="57">
         <f t="shared" si="31"/>
         <v>2.3622047244094488E-2</v>
       </c>
-      <c r="AF36" s="60">
+      <c r="AF36" s="57">
         <f t="shared" si="32"/>
         <v>0.12598425196850391</v>
       </c>
-      <c r="AG36" s="60">
+      <c r="AG36" s="57">
         <f t="shared" si="33"/>
         <v>1.8372703412073508E-2</v>
       </c>
       <c r="AH36" s="51">
         <v>0</v>
       </c>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
+      <c r="AI36" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="51">
+        <v>0</v>
+      </c>
       <c r="AK36" s="51">
         <v>0</v>
       </c>
@@ -13303,8 +13310,12 @@
       <c r="BH36" s="16">
         <v>0</v>
       </c>
-      <c r="BI36" s="16"/>
-      <c r="BJ36" s="16"/>
+      <c r="BI36" s="16">
+        <v>1</v>
+      </c>
+      <c r="BJ36" s="16">
+        <v>1</v>
+      </c>
       <c r="BK36" s="16">
         <v>0</v>
       </c>
@@ -13397,8 +13408,12 @@
       <c r="CH36" s="45">
         <v>1</v>
       </c>
-      <c r="CI36" s="45"/>
-      <c r="CJ36" s="45"/>
+      <c r="CI36" s="45">
+        <v>1</v>
+      </c>
+      <c r="CJ36" s="45">
+        <v>0</v>
+      </c>
       <c r="CK36" s="45">
         <v>1</v>
       </c>
@@ -13521,27 +13536,31 @@
         <f t="shared" si="29"/>
         <v>10.777777777777779</v>
       </c>
-      <c r="AD37" s="60">
+      <c r="AD37" s="57">
         <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="AE37" s="60">
+      <c r="AE37" s="57">
         <f t="shared" si="31"/>
         <v>0.52857142857142858</v>
       </c>
-      <c r="AF37" s="60">
+      <c r="AF37" s="57">
         <f t="shared" si="32"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="AG37" s="60">
+      <c r="AG37" s="57">
         <f t="shared" si="33"/>
         <v>0.46190476190476198</v>
       </c>
       <c r="AH37" s="51">
         <v>0</v>
       </c>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
+      <c r="AI37" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="51">
+        <v>0</v>
+      </c>
       <c r="AK37" s="51">
         <v>0</v>
       </c>
@@ -13634,8 +13653,12 @@
       <c r="BH37" s="16">
         <v>0</v>
       </c>
-      <c r="BI37" s="16"/>
-      <c r="BJ37" s="16"/>
+      <c r="BI37" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="16">
+        <v>0</v>
+      </c>
       <c r="BK37" s="16">
         <v>0</v>
       </c>
@@ -13728,8 +13751,12 @@
       <c r="CH37" s="45">
         <v>1</v>
       </c>
-      <c r="CI37" s="45"/>
-      <c r="CJ37" s="45"/>
+      <c r="CI37" s="45">
+        <v>0</v>
+      </c>
+      <c r="CJ37" s="45">
+        <v>1</v>
+      </c>
       <c r="CK37" s="45">
         <v>0</v>
       </c>
@@ -13864,19 +13891,19 @@
         <f t="shared" si="29"/>
         <v>0.11111111111111072</v>
       </c>
-      <c r="AD38" s="60">
+      <c r="AD38" s="57">
         <f t="shared" si="30"/>
         <v>0.47619047619047616</v>
       </c>
-      <c r="AE38" s="60">
+      <c r="AE38" s="57">
         <f t="shared" si="31"/>
         <v>0.11111111111111105</v>
       </c>
-      <c r="AF38" s="60">
+      <c r="AF38" s="57">
         <f t="shared" si="32"/>
         <v>0.3174603174603175</v>
       </c>
-      <c r="AG38" s="60">
+      <c r="AG38" s="57">
         <f t="shared" si="33"/>
         <v>5.2910052910052725E-3</v>
       </c>
@@ -14195,19 +14222,19 @@
         <f t="shared" si="29"/>
         <v>3.4444444444444464</v>
       </c>
-      <c r="AD39" s="60">
+      <c r="AD39" s="57">
         <f t="shared" si="30"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="AE39" s="60">
+      <c r="AE39" s="57">
         <f t="shared" si="31"/>
         <v>0.12280701754385968</v>
       </c>
-      <c r="AF39" s="60">
+      <c r="AF39" s="57">
         <f t="shared" si="32"/>
         <v>0.175438596491228</v>
       </c>
-      <c r="AG39" s="60">
+      <c r="AG39" s="57">
         <f t="shared" si="33"/>
         <v>0.18128654970760244</v>
       </c>
@@ -14526,19 +14553,19 @@
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="AD40" s="60">
+      <c r="AD40" s="57">
         <f t="shared" si="30"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="AE40" s="60">
+      <c r="AE40" s="57">
         <f t="shared" si="31"/>
         <v>0.16666666666666671</v>
       </c>
-      <c r="AF40" s="60">
+      <c r="AF40" s="57">
         <f t="shared" si="32"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AG40" s="60">
+      <c r="AG40" s="57">
         <f t="shared" si="33"/>
         <v>0.21428571428571427</v>
       </c>
@@ -14857,19 +14884,19 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="60">
+      <c r="AD41" s="57">
         <f t="shared" si="30"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AE41" s="60">
+      <c r="AE41" s="57">
         <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF41" s="60">
+      <c r="AF41" s="57">
         <f t="shared" si="32"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AG41" s="60">
+      <c r="AG41" s="57">
         <f t="shared" si="33"/>
         <v>0.14285714285714285</v>
       </c>
@@ -15200,19 +15227,19 @@
         <f t="shared" si="29"/>
         <v>11.666666666666668</v>
       </c>
-      <c r="AD42" s="60">
+      <c r="AD42" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="60">
+      <c r="AE42" s="57">
         <f t="shared" si="31"/>
         <v>0.27559055118110237</v>
       </c>
-      <c r="AF42" s="60">
+      <c r="AF42" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="60">
+      <c r="AG42" s="57">
         <f t="shared" si="33"/>
         <v>0.27559055118110237</v>
       </c>
@@ -15531,19 +15558,19 @@
         <f t="shared" si="29"/>
         <v>2.7777777777777786</v>
       </c>
-      <c r="AD43" s="60">
+      <c r="AD43" s="57">
         <f t="shared" si="30"/>
         <v>0.37128712871287134</v>
       </c>
-      <c r="AE43" s="60">
+      <c r="AE43" s="57">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="60">
+      <c r="AF43" s="57">
         <f t="shared" si="32"/>
         <v>0.24752475247524761</v>
       </c>
-      <c r="AG43" s="60">
+      <c r="AG43" s="57">
         <f t="shared" si="33"/>
         <v>8.2508250825082535E-2</v>
       </c>
@@ -15862,19 +15889,19 @@
         <f t="shared" si="29"/>
         <v>0.11111111111110716</v>
       </c>
-      <c r="AD44" s="60">
+      <c r="AD44" s="57">
         <f t="shared" si="30"/>
         <v>1.3666666666666667</v>
       </c>
-      <c r="AE44" s="60">
+      <c r="AE44" s="57">
         <f t="shared" si="31"/>
         <v>0.31111111111111095</v>
       </c>
-      <c r="AF44" s="60">
+      <c r="AF44" s="57">
         <f t="shared" si="32"/>
         <v>0.91111111111111098</v>
       </c>
-      <c r="AG44" s="60">
+      <c r="AG44" s="57">
         <f t="shared" si="33"/>
         <v>7.407407407407144E-3</v>
       </c>
@@ -16193,19 +16220,19 @@
         <f t="shared" si="29"/>
         <v>2.5555555555555554</v>
       </c>
-      <c r="AD45" s="60">
+      <c r="AD45" s="57">
         <f t="shared" si="30"/>
         <v>0.15420560747663553</v>
       </c>
-      <c r="AE45" s="60">
+      <c r="AE45" s="57">
         <f t="shared" si="31"/>
         <v>3.7383177570093476E-2</v>
       </c>
-      <c r="AF45" s="60">
+      <c r="AF45" s="57">
         <f t="shared" si="32"/>
         <v>0.10280373831775705</v>
       </c>
-      <c r="AG45" s="60">
+      <c r="AG45" s="57">
         <f t="shared" si="33"/>
         <v>7.1651090342679122E-2</v>
       </c>
@@ -16536,19 +16563,19 @@
         <f t="shared" si="29"/>
         <v>3.5555555555555571</v>
       </c>
-      <c r="AD46" s="60">
+      <c r="AD46" s="57">
         <f t="shared" si="30"/>
         <v>0.36792452830188677</v>
       </c>
-      <c r="AE46" s="60">
+      <c r="AE46" s="57">
         <f t="shared" si="31"/>
         <v>1.8867924528301921E-2</v>
       </c>
-      <c r="AF46" s="60">
+      <c r="AF46" s="57">
         <f t="shared" si="32"/>
         <v>0.24528301886792445</v>
       </c>
-      <c r="AG46" s="60">
+      <c r="AG46" s="57">
         <f t="shared" si="33"/>
         <v>0.1006289308176101</v>
       </c>
@@ -16867,19 +16894,19 @@
         <f t="shared" si="29"/>
         <v>4.2222222222222214</v>
       </c>
-      <c r="AD47" s="60">
+      <c r="AD47" s="57">
         <f t="shared" si="30"/>
         <v>0.23595505617977527</v>
       </c>
-      <c r="AE47" s="60">
+      <c r="AE47" s="57">
         <f t="shared" si="31"/>
         <v>8.9887640449438241E-2</v>
       </c>
-      <c r="AF47" s="60">
+      <c r="AF47" s="57">
         <f t="shared" si="32"/>
         <v>0.15730337078651688</v>
       </c>
-      <c r="AG47" s="60">
+      <c r="AG47" s="57">
         <f t="shared" si="33"/>
         <v>0.14232209737827711</v>
       </c>
@@ -17198,19 +17225,19 @@
         <f t="shared" si="29"/>
         <v>3.8888888888888893</v>
       </c>
-      <c r="AD48" s="60">
+      <c r="AD48" s="57">
         <f t="shared" si="30"/>
         <v>0.39622641509433959</v>
       </c>
-      <c r="AE48" s="60">
+      <c r="AE48" s="57">
         <f t="shared" si="31"/>
         <v>0.13207547169811334</v>
       </c>
-      <c r="AF48" s="60">
+      <c r="AF48" s="57">
         <f t="shared" si="32"/>
         <v>0.26415094339622647</v>
       </c>
-      <c r="AG48" s="60">
+      <c r="AG48" s="57">
         <f t="shared" si="33"/>
         <v>0.22012578616352202</v>
       </c>
@@ -17529,19 +17556,19 @@
         <f t="shared" si="29"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="AD49" s="60">
+      <c r="AD49" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="60">
+      <c r="AE49" s="57">
         <f t="shared" si="31"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="AF49" s="60">
+      <c r="AF49" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG49" s="60">
+      <c r="AG49" s="57">
         <f t="shared" si="33"/>
         <v>0.30769230769230771</v>
       </c>
@@ -17872,19 +17899,19 @@
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="AD50" s="60">
+      <c r="AD50" s="57">
         <f t="shared" si="30"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="AE50" s="60">
+      <c r="AE50" s="57">
         <f t="shared" si="31"/>
         <v>5.8823529411764879E-2</v>
       </c>
-      <c r="AF50" s="60">
+      <c r="AF50" s="57">
         <f t="shared" si="32"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="AG50" s="60">
+      <c r="AG50" s="57">
         <f t="shared" si="33"/>
         <v>0.17647058823529413</v>
       </c>
@@ -18203,19 +18230,19 @@
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
-      <c r="AD51" s="60">
+      <c r="AD51" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="60">
+      <c r="AE51" s="57">
         <f t="shared" si="31"/>
         <v>0.3</v>
       </c>
-      <c r="AF51" s="60">
+      <c r="AF51" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG51" s="60">
+      <c r="AG51" s="57">
         <f t="shared" si="33"/>
         <v>0.3</v>
       </c>
@@ -18534,19 +18561,19 @@
         <f t="shared" si="29"/>
         <v>8.3333333333333357</v>
       </c>
-      <c r="AD52" s="60">
+      <c r="AD52" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="60">
+      <c r="AE52" s="57">
         <f t="shared" si="31"/>
         <v>0.26881720430107536</v>
       </c>
-      <c r="AF52" s="60">
+      <c r="AF52" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="60">
+      <c r="AG52" s="57">
         <f t="shared" si="33"/>
         <v>0.26881720430107536</v>
       </c>
@@ -18865,19 +18892,19 @@
         <f t="shared" si="29"/>
         <v>8.3333333333333357</v>
       </c>
-      <c r="AD53" s="60">
+      <c r="AD53" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="60">
+      <c r="AE53" s="57">
         <f t="shared" si="31"/>
         <v>0.30487804878048791</v>
       </c>
-      <c r="AF53" s="60">
+      <c r="AF53" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="60">
+      <c r="AG53" s="57">
         <f t="shared" si="33"/>
         <v>0.30487804878048791</v>
       </c>
@@ -19208,19 +19235,19 @@
         <f t="shared" si="29"/>
         <v>13.333333333333336</v>
       </c>
-      <c r="AD54" s="60">
+      <c r="AD54" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="60">
+      <c r="AE54" s="57">
         <f t="shared" si="31"/>
         <v>0.48780487804878059</v>
       </c>
-      <c r="AF54" s="60">
+      <c r="AF54" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="60">
+      <c r="AG54" s="57">
         <f t="shared" si="33"/>
         <v>0.48780487804878059</v>
       </c>
@@ -19539,19 +19566,19 @@
         <f t="shared" si="29"/>
         <v>6.6666666666666679</v>
       </c>
-      <c r="AD55" s="60">
+      <c r="AD55" s="57">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="60">
+      <c r="AE55" s="57">
         <f t="shared" si="31"/>
         <v>0.25316455696202539</v>
       </c>
-      <c r="AF55" s="60">
+      <c r="AF55" s="57">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AG55" s="60">
+      <c r="AG55" s="57">
         <f t="shared" si="33"/>
         <v>0.25316455696202539</v>
       </c>
@@ -19870,19 +19897,19 @@
         <f t="shared" si="29"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="AD56" s="60">
+      <c r="AD56" s="57">
         <f t="shared" si="30"/>
         <v>5.2447552447552448E-2</v>
       </c>
-      <c r="AE56" s="60">
+      <c r="AE56" s="57">
         <f t="shared" si="31"/>
         <v>0.1048951048951049</v>
       </c>
-      <c r="AF56" s="60">
+      <c r="AF56" s="57">
         <f t="shared" si="32"/>
         <v>3.4965034965034988E-2</v>
       </c>
-      <c r="AG56" s="60">
+      <c r="AG56" s="57">
         <f t="shared" si="33"/>
         <v>0.11655011655011656</v>
       </c>
@@ -20201,19 +20228,19 @@
         <f t="shared" si="29"/>
         <v>7.3333333333333357</v>
       </c>
-      <c r="AD57" s="60">
+      <c r="AD57" s="57">
         <f t="shared" si="30"/>
         <v>0.14516129032258066</v>
       </c>
-      <c r="AE57" s="60">
+      <c r="AE57" s="57">
         <f t="shared" si="31"/>
         <v>0.20430107526881727</v>
       </c>
-      <c r="AF57" s="60">
+      <c r="AF57" s="57">
         <f t="shared" si="32"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="AG57" s="60">
+      <c r="AG57" s="57">
         <f t="shared" si="33"/>
         <v>0.2365591397849463</v>
       </c>
@@ -20544,19 +20571,19 @@
         <f t="shared" si="29"/>
         <v>13.888888888888893</v>
       </c>
-      <c r="AD58" s="60">
+      <c r="AD58" s="57">
         <f t="shared" si="30"/>
         <v>5.1369863013698634E-2</v>
       </c>
-      <c r="AE58" s="60">
+      <c r="AE58" s="57">
         <f t="shared" si="31"/>
         <v>0.27397260273972607</v>
       </c>
-      <c r="AF58" s="60">
+      <c r="AF58" s="57">
         <f t="shared" si="32"/>
         <v>3.424657534246571E-2</v>
       </c>
-      <c r="AG58" s="60">
+      <c r="AG58" s="57">
         <f t="shared" si="33"/>
         <v>0.28538812785388135</v>
       </c>
@@ -20875,19 +20902,19 @@
         <f t="shared" ref="AC59:AC73" si="116">ABS(U59)</f>
         <v>17.222222222222229</v>
       </c>
-      <c r="AD59" s="60">
+      <c r="AD59" s="57">
         <f t="shared" ref="AD59:AD73" si="117">ABS(V59)</f>
         <v>7.0754716981132074E-2</v>
       </c>
-      <c r="AE59" s="60">
+      <c r="AE59" s="57">
         <f t="shared" ref="AE59:AE73" si="118">ABS(W59)</f>
         <v>0.47169811320754729</v>
       </c>
-      <c r="AF59" s="60">
+      <c r="AF59" s="57">
         <f t="shared" ref="AF59:AF73" si="119">ABS(X59)</f>
         <v>4.7169811320754644E-2</v>
       </c>
-      <c r="AG59" s="60">
+      <c r="AG59" s="57">
         <f t="shared" ref="AG59:AG73" si="120">ABS(Y59)</f>
         <v>0.48742138364779891</v>
       </c>
@@ -21206,19 +21233,19 @@
         <f t="shared" si="116"/>
         <v>10</v>
       </c>
-      <c r="AD60" s="60">
+      <c r="AD60" s="57">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE60" s="60">
+      <c r="AE60" s="57">
         <f t="shared" si="118"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="AF60" s="60">
+      <c r="AF60" s="57">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AG60" s="60">
+      <c r="AG60" s="57">
         <f t="shared" si="120"/>
         <v>0.29411764705882354</v>
       </c>
@@ -21537,19 +21564,19 @@
         <f t="shared" si="116"/>
         <v>8.1111111111111143</v>
       </c>
-      <c r="AD61" s="60">
+      <c r="AD61" s="57">
         <f t="shared" si="117"/>
         <v>1.5957446808510641E-2</v>
       </c>
-      <c r="AE61" s="60">
+      <c r="AE61" s="57">
         <f t="shared" si="118"/>
         <v>0.25531914893617025</v>
       </c>
-      <c r="AF61" s="60">
+      <c r="AF61" s="57">
         <f t="shared" si="119"/>
         <v>1.0638297872340389E-2</v>
       </c>
-      <c r="AG61" s="60">
+      <c r="AG61" s="57">
         <f t="shared" si="120"/>
         <v>0.25886524822695045</v>
       </c>
@@ -21880,19 +21907,19 @@
         <f t="shared" si="116"/>
         <v>21.666666666666671</v>
       </c>
-      <c r="AD62" s="60">
+      <c r="AD62" s="57">
         <f t="shared" si="117"/>
         <v>0.16917293233082706</v>
       </c>
-      <c r="AE62" s="60">
+      <c r="AE62" s="57">
         <f t="shared" si="118"/>
         <v>0.52631578947368418</v>
       </c>
-      <c r="AF62" s="60">
+      <c r="AF62" s="57">
         <f t="shared" si="119"/>
         <v>0.11278195488721804</v>
       </c>
-      <c r="AG62" s="60">
+      <c r="AG62" s="57">
         <f t="shared" si="120"/>
         <v>0.48872180451127828</v>
       </c>
@@ -22211,19 +22238,19 @@
         <f t="shared" si="116"/>
         <v>11.666666666666668</v>
       </c>
-      <c r="AD63" s="60">
+      <c r="AD63" s="57">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE63" s="60">
+      <c r="AE63" s="57">
         <f t="shared" si="118"/>
         <v>0.44303797468354439</v>
       </c>
-      <c r="AF63" s="60">
+      <c r="AF63" s="57">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AG63" s="60">
+      <c r="AG63" s="57">
         <f t="shared" si="120"/>
         <v>0.44303797468354439</v>
       </c>
@@ -22542,19 +22569,19 @@
         <f t="shared" si="116"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="AD64" s="60">
+      <c r="AD64" s="57">
         <f t="shared" si="117"/>
         <v>0.12295081967213116</v>
       </c>
-      <c r="AE64" s="60">
+      <c r="AE64" s="57">
         <f t="shared" si="118"/>
         <v>0.24590163934426232</v>
       </c>
-      <c r="AF64" s="60">
+      <c r="AF64" s="57">
         <f t="shared" si="119"/>
         <v>8.1967213114754162E-2</v>
       </c>
-      <c r="AG64" s="60">
+      <c r="AG64" s="57">
         <f t="shared" si="120"/>
         <v>0.27322404371584702</v>
       </c>
@@ -22873,19 +22900,19 @@
         <f t="shared" si="116"/>
         <v>2.2222222222222232</v>
       </c>
-      <c r="AD65" s="60">
+      <c r="AD65" s="57">
         <f t="shared" si="117"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="AE65" s="60">
+      <c r="AE65" s="57">
         <f t="shared" si="118"/>
         <v>8.8888888888888934E-2</v>
       </c>
-      <c r="AF65" s="60">
+      <c r="AF65" s="57">
         <f t="shared" si="119"/>
         <v>0.17777777777777773</v>
       </c>
-      <c r="AG65" s="60">
+      <c r="AG65" s="57">
         <f t="shared" si="120"/>
         <v>0.14814814814814822</v>
       </c>
@@ -23216,19 +23243,19 @@
         <f t="shared" si="116"/>
         <v>52.222222222222229</v>
       </c>
-      <c r="AD66" s="60">
+      <c r="AD66" s="57">
         <f t="shared" si="117"/>
         <v>0.9375</v>
       </c>
-      <c r="AE66" s="60">
+      <c r="AE66" s="57">
         <f t="shared" si="118"/>
         <v>1.1875</v>
       </c>
-      <c r="AF66" s="60">
+      <c r="AF66" s="57">
         <f t="shared" si="119"/>
         <v>0.625</v>
       </c>
-      <c r="AG66" s="60">
+      <c r="AG66" s="57">
         <f t="shared" si="120"/>
         <v>0.97916666666666674</v>
       </c>
@@ -23547,19 +23574,19 @@
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="60">
+      <c r="AD67" s="57">
         <f t="shared" si="117"/>
         <v>0.40178571428571425</v>
       </c>
-      <c r="AE67" s="60">
+      <c r="AE67" s="57">
         <f t="shared" si="118"/>
         <v>8.9285714285714246E-2</v>
       </c>
-      <c r="AF67" s="60">
+      <c r="AF67" s="57">
         <f t="shared" si="119"/>
         <v>0.26785714285714285</v>
       </c>
-      <c r="AG67" s="60">
+      <c r="AG67" s="57">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
@@ -23878,19 +23905,19 @@
         <f t="shared" si="116"/>
         <v>12.222222222222225</v>
       </c>
-      <c r="AD68" s="60">
+      <c r="AD68" s="57">
         <f t="shared" si="117"/>
         <v>6.8181818181818191E-2</v>
       </c>
-      <c r="AE68" s="60">
+      <c r="AE68" s="57">
         <f t="shared" si="118"/>
         <v>0.31818181818181823</v>
       </c>
-      <c r="AF68" s="60">
+      <c r="AF68" s="57">
         <f t="shared" si="119"/>
         <v>4.5454545454545393E-2</v>
       </c>
-      <c r="AG68" s="60">
+      <c r="AG68" s="57">
         <f t="shared" si="120"/>
         <v>0.33333333333333343</v>
       </c>
@@ -24209,19 +24236,19 @@
         <f t="shared" si="116"/>
         <v>10</v>
       </c>
-      <c r="AD69" s="60">
+      <c r="AD69" s="57">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AE69" s="60">
+      <c r="AE69" s="57">
         <f t="shared" si="118"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="AF69" s="60">
+      <c r="AF69" s="57">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AG69" s="60">
+      <c r="AG69" s="57">
         <f t="shared" si="120"/>
         <v>0.2608695652173913</v>
       </c>
@@ -24552,19 +24579,19 @@
         <f t="shared" si="116"/>
         <v>9.4444444444444429</v>
       </c>
-      <c r="AD70" s="60">
+      <c r="AD70" s="57">
         <f t="shared" si="117"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="AE70" s="60">
+      <c r="AE70" s="57">
         <f t="shared" si="118"/>
         <v>0.30487804878048791</v>
       </c>
-      <c r="AF70" s="60">
+      <c r="AF70" s="57">
         <f t="shared" si="119"/>
         <v>0.12195121951219522</v>
       </c>
-      <c r="AG70" s="60">
+      <c r="AG70" s="57">
         <f t="shared" si="120"/>
         <v>0.34552845528455278</v>
       </c>
@@ -24883,19 +24910,19 @@
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AD71" s="60">
+      <c r="AD71" s="57">
         <f t="shared" si="117"/>
         <v>0.63380281690140838</v>
       </c>
-      <c r="AE71" s="60">
+      <c r="AE71" s="57">
         <f t="shared" si="118"/>
         <v>0.14084507042253516</v>
       </c>
-      <c r="AF71" s="60">
+      <c r="AF71" s="57">
         <f t="shared" si="119"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="AG71" s="60">
+      <c r="AG71" s="57">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
@@ -25214,19 +25241,19 @@
         <f t="shared" si="116"/>
         <v>7.2222222222222214</v>
       </c>
-      <c r="AD72" s="60">
+      <c r="AD72" s="57">
         <f t="shared" si="117"/>
         <v>8.7209302325581398E-2</v>
       </c>
-      <c r="AE72" s="60">
+      <c r="AE72" s="57">
         <f t="shared" si="118"/>
         <v>0.23255813953488375</v>
       </c>
-      <c r="AF72" s="60">
+      <c r="AF72" s="57">
         <f t="shared" si="119"/>
         <v>5.8139534883720971E-2</v>
       </c>
-      <c r="AG72" s="60">
+      <c r="AG72" s="57">
         <f t="shared" si="120"/>
         <v>0.25193798449612398</v>
       </c>
@@ -25545,19 +25572,19 @@
         <f t="shared" si="116"/>
         <v>3.3333333333333357</v>
       </c>
-      <c r="AD73" s="60">
+      <c r="AD73" s="57">
         <f t="shared" si="117"/>
         <v>0.40178571428571425</v>
       </c>
-      <c r="AE73" s="60">
+      <c r="AE73" s="57">
         <f t="shared" si="118"/>
         <v>8.9285714285714343E-2</v>
       </c>
-      <c r="AF73" s="60">
+      <c r="AF73" s="57">
         <f t="shared" si="119"/>
         <v>0.26785714285714285</v>
       </c>
-      <c r="AG73" s="60">
+      <c r="AG73" s="57">
         <f t="shared" si="120"/>
         <v>0.17857142857142869</v>
       </c>

--- a/Datos/JASP_Datos_r3.xlsx
+++ b/Datos/JASP_Datos_r3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio25_2\Desktop\Jaime_Lab25\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Sesion</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>TC</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>NAR</t>
   </si>
   <si>
     <t>BO1</t>
@@ -323,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -994,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR74"/>
+  <dimension ref="A1:CR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ34" sqref="CJ34:CJ37"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1065,169 +1056,169 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="U1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="AN1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="42" t="s">
+      <c r="AP1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="AS1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="AT1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AU1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AW1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AX1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="50" t="s">
+      <c r="AY1" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI1" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" s="52" t="s">
         <v>49</v>
-      </c>
-      <c r="AI1" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO1" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ1" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW1" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX1" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY1" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ1" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA1" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC1" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD1" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF1" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG1" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI1" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="52" t="s">
-        <v>52</v>
       </c>
       <c r="BL1" s="7" t="s">
         <v>5</v>
@@ -1236,76 +1227,76 @@
         <v>6</v>
       </c>
       <c r="BN1" s="47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BO1" s="47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BP1" s="47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BQ1" s="47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BR1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="BS1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="BT1" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="BU1" s="49" t="s">
-        <v>48</v>
-      </c>
       <c r="BV1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="BW1" s="61" t="s">
+      <c r="BZ1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BX1" s="61" t="s">
+      <c r="CA1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="BY1" s="61" t="s">
+      <c r="CB1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="62" t="s">
+      <c r="CC1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="CA1" s="62" t="s">
+      <c r="CD1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="CB1" s="62" t="s">
+      <c r="CE1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="CC1" s="62" t="s">
+      <c r="CF1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="CD1" s="49" t="s">
+      <c r="CG1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="CE1" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="CF1" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="CG1" s="49" t="s">
-        <v>97</v>
-      </c>
       <c r="CH1" s="55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="CI1" s="55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="CJ1" s="55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="CK1" s="54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL1" s="1" t="s">
         <v>9</v>
@@ -25804,17 +25795,6 @@
       <c r="CQ73" s="8">
         <f t="shared" si="161"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="D74" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/JASP_Datos_r3.xlsx
+++ b/Datos/JASP_Datos_r3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio25_2\Desktop\Jaime_Lab25\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="AI21" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="51">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="CI26" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ26" s="45">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="CI27" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ27" s="45">
         <v>0</v>
@@ -13544,7 +13544,7 @@
         <v>0.46190476190476198</v>
       </c>
       <c r="AH37" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="51">
         <v>1</v>
@@ -18095,7 +18095,7 @@
         <v>9.8039215686274536E-2</v>
       </c>
       <c r="CH50" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI50" s="45"/>
       <c r="CJ50" s="45"/>
@@ -18426,7 +18426,7 @@
         <v>0.16666666666666671</v>
       </c>
       <c r="CH51" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI51" s="45"/>
       <c r="CJ51" s="45"/>
